--- a/Results/Notebook 2 Example 2/Scores/problem_2_instance3_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_2_instance3_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02856689439844635</v>
+        <v>0.01702384718974029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1789067483298585</v>
+        <v>0.2168581401471243</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08261841907742529</v>
+        <v>0.06596560242209266</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2338098817163392</v>
+        <v>0.2517934647325251</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8999703470361942</v>
+        <v>0.8696459864049334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4624128688364729</v>
+        <v>0.4923520739298654</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.993952134393348</v>
+        <v>0.993363207328594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4266568501498256</v>
+        <v>0.4579360745264823</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9949639650823493</v>
+        <v>0.9864096432805773</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8071295165330665</v>
+        <v>0.7648136320469063</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9752087174111929</v>
+        <v>0.9495099268375535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3313088559581088</v>
+        <v>0.3372410961695695</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007840812206268311</v>
+        <v>0.00897695541381836</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1782809495925903</v>
+        <v>0.1923011207580566</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1750159143891186</v>
+        <v>0.1949137773170574</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1610724365031522</v>
+        <v>0.2513584432831898</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4183277950491374</v>
+        <v>0.6069232130487306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.410973249681616</v>
+        <v>0.4097708737640559</v>
       </c>
     </row>
   </sheetData>
